--- a/C-IDM small.xlsx
+++ b/C-IDM small.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Brescia/Desktop/Hypermedia-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{544D5A91-A65A-4340-8F74-388864A37A9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EB8D32-96FE-814C-B6C7-59DB4B627D87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" xr2:uid="{2A99B391-AC1A-B748-B582-00C0CFE49A9D}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16220" xr2:uid="{2A99B391-AC1A-B748-B582-00C0CFE49A9D}"/>
   </bookViews>
   <sheets>
     <sheet name="KIND+GROUPS" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="52">
   <si>
     <t>KIND OF TOPIC: Product</t>
   </si>
@@ -150,9 +150,6 @@
     <t>FUNCITONALITIES: List&lt;rapresentation Image, description  Text (max 20 words)&gt;</t>
   </si>
   <si>
-    <t>CASESTUDY: List &lt;nameofCompany Text, logoCompany Image&gt;</t>
-  </si>
-  <si>
     <t>TOPIC: Contact</t>
   </si>
   <si>
@@ -221,6 +218,21 @@
   </si>
   <si>
     <t>People: List&lt;name Text, logo Image&gt;</t>
+  </si>
+  <si>
+    <t>CASESTUDY: List &lt;nameofCompany Text, logoCompany Image, description Text&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/6 persone per parte direigenze </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 project manager </t>
+  </si>
+  <si>
+    <t>5/6 project assistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 senior developer </t>
   </si>
 </sst>
 </file>
@@ -707,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6630D1F2-4865-924D-BDED-F04DF1543173}">
   <dimension ref="A2:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="75" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="165" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -737,7 +749,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -745,13 +757,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -759,7 +771,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>8</v>
@@ -770,10 +782,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -781,7 +793,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -795,7 +807,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -806,13 +818,13 @@
         <v>7</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -823,7 +835,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>8</v>
@@ -831,7 +843,7 @@
     </row>
     <row r="11" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>22</v>
@@ -845,7 +857,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>22</v>
@@ -855,7 +867,7 @@
       <c r="A13" s="7"/>
       <c r="C13" s="7"/>
       <c r="E13" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -875,7 +887,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -883,10 +895,10 @@
         <v>9</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -894,10 +906,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -905,7 +917,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>22</v>
@@ -916,10 +928,10 @@
         <v>3</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -927,10 +939,10 @@
         <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -941,7 +953,7 @@
         <v>7</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -961,7 +973,7 @@
     <row r="25" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="C25" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -971,10 +983,10 @@
     </row>
     <row r="27" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -982,7 +994,7 @@
         <v>14</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -992,7 +1004,7 @@
     </row>
     <row r="30" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -1015,7 +1027,7 @@
         <v>11</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -1023,7 +1035,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -1049,10 +1061,10 @@
     </row>
     <row r="42" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -1060,7 +1072,7 @@
         <v>6</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -1093,12 +1105,12 @@
     <row r="51" spans="1:1" ht="20" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="1:1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -1108,17 +1120,17 @@
     </row>
     <row r="55" spans="1:1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -1136,7 +1148,7 @@
     <row r="62" spans="1:1" ht="20" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="63" spans="1:1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -1151,26 +1163,26 @@
     </row>
     <row r="66" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
       <c r="B69" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -1191,9 +1203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D2F0F0-85D1-6047-9121-D407D1211647}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I1" activeCellId="6" sqref="C1:C1048576 D1:D1048576 E1:E1048576 F1:F1048576 G1:G1048576 H1:H1048576 I1:I1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1208,17 +1218,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57985F3-2B8C-C84E-979A-FFD9051474F6}">
-  <dimension ref="A1"/>
+  <dimension ref="A3:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K1048576"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="11" width="47.83203125" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
